--- a/ValueSet-what-matters-vs.xlsx
+++ b/ValueSet-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-vs.xlsx
+++ b/ValueSet-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-vs.xlsx
+++ b/ValueSet-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>what-matters</t>
   </si>
   <si>
-    <t>What Matters Most</t>
+    <t>What Matters</t>
   </si>
   <si>
     <t/>

--- a/ValueSet-what-matters-vs.xlsx
+++ b/ValueSet-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-vs.xlsx
+++ b/ValueSet-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-vs.xlsx
+++ b/ValueSet-what-matters-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
